--- a/pcb/BOM/BOM_RetroPlay25.xlsx
+++ b/pcb/BOM/BOM_RetroPlay25.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="14280" windowHeight="12900"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_RetroPlay25_RetroPlay25_202" state="visible" r:id="rId4"/>
+    <sheet name="BOM_RetroPlay25_RetroPlay25_202" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="219">
   <si>
     <t>No.</t>
   </si>
@@ -578,30 +594,463 @@
   </si>
   <si>
     <t>C404969</t>
+  </si>
+  <si>
+    <t>扬声器</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>40x40x22mm</t>
+  </si>
+  <si>
+    <t>3W 4Ω</t>
+  </si>
+  <si>
+    <t>4040腔体4欧3W-PH2.0端子</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=657030806827</t>
+  </si>
+  <si>
+    <t>OLED显示屏</t>
+  </si>
+  <si>
+    <t>OLED Diaplay</t>
+  </si>
+  <si>
+    <t>1.3 inch 128x64</t>
+  </si>
+  <si>
+    <t>SSD1306 SPI OLED Display</t>
+  </si>
+  <si>
+    <t>1.3寸OLED显示屏spi接口液晶串口屏模块SH1106控制器128*64分辨率</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=569786760090</t>
+  </si>
+  <si>
+    <t>旋钮</t>
+  </si>
+  <si>
+    <t>Knob</t>
+  </si>
+  <si>
+    <t>22x8 (D:22mm, H:8mm)</t>
+  </si>
+  <si>
+    <t>6mm半轴/D轴旋钮</t>
+  </si>
+  <si>
+    <t>铝旋钮22*8全黑编码器旋钮</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=818168080299</t>
+  </si>
+  <si>
+    <t>船型开关</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>KCD5/11</t>
+  </si>
+  <si>
+    <t>KCD5/11微型小船形开关</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=540512089636</t>
+  </si>
+  <si>
+    <t>锂电池充电模块</t>
+  </si>
+  <si>
+    <t>Power Charge Module</t>
+  </si>
+  <si>
+    <t>5v2A</t>
+  </si>
+  <si>
+    <t>5V2A/2.4A充放电锂电充电模块电源 type-c口</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=748366426868</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>lithium battery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -609,24 +1058,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -948,22 +1690,24 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1739,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1027,7 +1771,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1803,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1091,7 +1835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1155,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1187,7 +1931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -1219,7 +1963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -1251,7 +1995,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1283,7 +2027,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1315,7 +2059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -1347,7 +2091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>76</v>
       </c>
@@ -1379,7 +2123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>82</v>
       </c>
@@ -1411,7 +2155,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -1443,7 +2187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -1475,7 +2219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>98</v>
       </c>
@@ -1507,7 +2251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>104</v>
       </c>
@@ -1539,7 +2283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>111</v>
       </c>
@@ -1571,7 +2315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -1603,7 +2347,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -1635,7 +2379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -1667,7 +2411,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -1699,7 +2443,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -1731,7 +2475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -1763,7 +2507,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>149</v>
       </c>
@@ -1795,7 +2539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -1827,7 +2571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -1859,7 +2603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>167</v>
       </c>
@@ -1891,7 +2635,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -1923,7 +2667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -1955,7 +2699,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -1987,14 +2731,160 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>67</v>
       </c>
     </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" t="s">
+        <v>199</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
+      </c>
+      <c r="G39" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" t="s">
+        <v>215</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J40" r:id="rId1" display="https://item.taobao.com/item.htm?id=748366426868"/>
+    <hyperlink ref="J39" r:id="rId2" display="https://item.taobao.com/item.htm?id=540512089636"/>
+    <hyperlink ref="J36" r:id="rId3" display="https://item.taobao.com/item.htm?id=657030806827"/>
+    <hyperlink ref="J38" r:id="rId4" display="https://item.taobao.com/item.htm?id=818168080299"/>
+    <hyperlink ref="J37" r:id="rId5" display="https://item.taobao.com/item.htm?id=569786760090"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>